--- a/biology/Médecine/Ligament_cruciforme_de_l'atlas/Ligament_cruciforme_de_l'atlas.xlsx
+++ b/biology/Médecine/Ligament_cruciforme_de_l'atlas/Ligament_cruciforme_de_l'atlas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_cruciforme_de_l%27atlas</t>
+          <t>Ligament_cruciforme_de_l'atlas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament cruciforme de l'atlas est un ligament de l'articulation atlanto-axoïdienne. Le ligament tire son nom de sa forme en croix.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_cruciforme_de_l%27atlas</t>
+          <t>Ligament_cruciforme_de_l'atlas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament croisé de l'atlas est constitué du ligament transverse de l'atlas, d'une bande longitudinale supérieure et d'une bande longitudinale inférieure[1],[2]. La bande longitudinale supérieure relie le ligament transverse à la face antérieure du foramen magnum sur la partie basilaire de l'os occipital du crâne[1]. La bande longitudinale inférieure relie le ligament transverse au corps de l'axis (C2)[1].
-Variation
-La bande longitudinale inférieure peut être absente chez certaines personnes[3]. Le reste du ligament est toujours présent.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament croisé de l'atlas est constitué du ligament transverse de l'atlas, d'une bande longitudinale supérieure et d'une bande longitudinale inférieure,. La bande longitudinale supérieure relie le ligament transverse à la face antérieure du foramen magnum sur la partie basilaire de l'os occipital du crâne. La bande longitudinale inférieure relie le ligament transverse au corps de l'axis (C2).
 </t>
         </is>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_cruciforme_de_l%27atlas</t>
+          <t>Ligament_cruciforme_de_l'atlas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rôle</t>
+          <t>Structure</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le ligament croisé de l'atlas empêche les mouvements anormaux de l'articulation atlanto-axiale[1]. Les bandes longitudinales empêchent l'hyperflexion et l'hyperextension de l'articulation, et maintiennent le ligament transverse de l'atlas dans une position normale[1].
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bande longitudinale inférieure peut être absente chez certaines personnes. Le reste du ligament est toujours présent.
 </t>
         </is>
       </c>
@@ -557,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ligament_cruciforme_de_l%27atlas</t>
+          <t>Ligament_cruciforme_de_l'atlas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,14 +590,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Rôle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament croisé de l'atlas empêche les mouvements anormaux de l'articulation atlanto-axiale. Les bandes longitudinales empêchent l'hyperflexion et l'hyperextension de l'articulation, et maintiennent le ligament transverse de l'atlas dans une position normale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ligament_cruciforme_de_l'atlas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_cruciforme_de_l%27atlas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un traumatisme de l'articulation peut entrainer une déchirure de n'importe quelle partie du ligament cruciforme de l'atlas, notamment en cas de fracture de l'atlas[3]. Les déchirures ligamentaires peuvent être visualisées par radiographie, tomodensitométrie ou imagerie par résonance magnétique.
-Ossification
-Très rarement, le ligament croisé de l'atlas peut s'ossifier et entraîner une myélopathie cervicale, un déficit de la moelle épinière[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un traumatisme de l'articulation peut entrainer une déchirure de n'importe quelle partie du ligament cruciforme de l'atlas, notamment en cas de fracture de l'atlas. Les déchirures ligamentaires peuvent être visualisées par radiographie, tomodensitométrie ou imagerie par résonance magnétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ligament_cruciforme_de_l'atlas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_cruciforme_de_l%27atlas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ossification</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très rarement, le ligament croisé de l'atlas peut s'ossifier et entraîner une myélopathie cervicale, un déficit de la moelle épinière.
 </t>
         </is>
       </c>
